--- a/Anatomy_Lab_Midterm.xlsx
+++ b/Anatomy_Lab_Midterm.xlsx
@@ -1,39 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattweintraub/Desktop/Anatomy Lab Midterm Matlab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlesdranoff/Desktop/Anatamy_Lab_Flashcards_V2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9CD5D1-764A-BF4A-ABDD-AF4EA8E3486D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E421280-FABA-6646-A0B9-D85F3A183339}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="14500" activeTab="2" xr2:uid="{AA681CFE-1A32-6843-92F2-60816954C640}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="18960" windowHeight="14920" firstSheet="3" activeTab="9" xr2:uid="{AA681CFE-1A32-6843-92F2-60816954C640}"/>
   </bookViews>
   <sheets>
     <sheet name="Pelvic" sheetId="1" r:id="rId1"/>
     <sheet name="Dorsal" sheetId="2" r:id="rId2"/>
-    <sheet name="distal_brachial" sheetId="3" r:id="rId3"/>
+    <sheet name="Abdominis" sheetId="10" r:id="rId3"/>
+    <sheet name="distal_brachial" sheetId="3" r:id="rId4"/>
+    <sheet name="proximal_brachial" sheetId="9" r:id="rId5"/>
+    <sheet name="Proximal_Crural" sheetId="4" r:id="rId6"/>
+    <sheet name="Distal_Crural" sheetId="5" r:id="rId7"/>
+    <sheet name="Thoracic" sheetId="8" r:id="rId8"/>
+    <sheet name="Module 5" sheetId="11" r:id="rId9"/>
+    <sheet name="Module 6" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="220">
   <si>
     <t>gluteus_maximus_pin.jpg</t>
   </si>
@@ -65,9 +66,6 @@
     <t>pirifromis</t>
   </si>
   <si>
-    <t>sciatic</t>
-  </si>
-  <si>
     <t>superior gamellus</t>
   </si>
   <si>
@@ -219,6 +217,483 @@
   </si>
   <si>
     <t>brachioradialis</t>
+  </si>
+  <si>
+    <t>palmaris longus</t>
+  </si>
+  <si>
+    <t>palmaris_longus.jpg</t>
+  </si>
+  <si>
+    <t>Sartorius</t>
+  </si>
+  <si>
+    <t>Gracilis</t>
+  </si>
+  <si>
+    <t>Rectus Femoris</t>
+  </si>
+  <si>
+    <t>Vastus Medialis</t>
+  </si>
+  <si>
+    <t>Vastus Lateralis</t>
+  </si>
+  <si>
+    <t>Great Saphenous Vein</t>
+  </si>
+  <si>
+    <t>Plantaris</t>
+  </si>
+  <si>
+    <t>Soleus</t>
+  </si>
+  <si>
+    <t>Tibialis Anterior</t>
+  </si>
+  <si>
+    <t>Pes Anserinus</t>
+  </si>
+  <si>
+    <t>Semitendinosus</t>
+  </si>
+  <si>
+    <t>gracilis_m.jpg</t>
+  </si>
+  <si>
+    <t>sartorius_m.jpg</t>
+  </si>
+  <si>
+    <t>semitendinosus_m.jpg</t>
+  </si>
+  <si>
+    <t>vastus_lateralis.jpg</t>
+  </si>
+  <si>
+    <t>vastus_medialis_m.jpg</t>
+  </si>
+  <si>
+    <t>rectus_femoris_m.jpg</t>
+  </si>
+  <si>
+    <t>great_saphenous_v.jpg</t>
+  </si>
+  <si>
+    <t>pes_anserinus.jpg</t>
+  </si>
+  <si>
+    <t>plantaris_m.jpg</t>
+  </si>
+  <si>
+    <t>tibialis_anterior.jpg</t>
+  </si>
+  <si>
+    <t>soleus_m.jpg</t>
+  </si>
+  <si>
+    <t>sciatic nerve</t>
+  </si>
+  <si>
+    <t>Quadratus Femoris</t>
+  </si>
+  <si>
+    <t>Obturator Internis</t>
+  </si>
+  <si>
+    <t>Obturator Externis</t>
+  </si>
+  <si>
+    <t>Tensor Fasciae Latae</t>
+  </si>
+  <si>
+    <t>tensor_fasciae_latae.jpg</t>
+  </si>
+  <si>
+    <t>quadratus_femoris.jpg</t>
+  </si>
+  <si>
+    <t>obturator_internus_tendon.jpg</t>
+  </si>
+  <si>
+    <t>obturator_externus.jpg</t>
+  </si>
+  <si>
+    <t>small_saphenous_v.jpg</t>
+  </si>
+  <si>
+    <t>Gastrocnemius</t>
+  </si>
+  <si>
+    <t>Long Head of Biceps Femoris</t>
+  </si>
+  <si>
+    <t>Short Head of Biceps Femoris</t>
+  </si>
+  <si>
+    <t>biceps_femoris_short_head.jpg</t>
+  </si>
+  <si>
+    <t>biceps_femoris_long_head.jpg</t>
+  </si>
+  <si>
+    <t>gastrocnemius_m.jpg</t>
+  </si>
+  <si>
+    <t>Pectoralis Major</t>
+  </si>
+  <si>
+    <t>Pectoralis Minor</t>
+  </si>
+  <si>
+    <t>Platysma</t>
+  </si>
+  <si>
+    <t>Serratus Anterior</t>
+  </si>
+  <si>
+    <t>Sternocleidomastoid</t>
+  </si>
+  <si>
+    <t>Medial Pectoral Nerve</t>
+  </si>
+  <si>
+    <t>Lateral Pectoral Nerve</t>
+  </si>
+  <si>
+    <t>pectoralis_major_pin.jpg</t>
+  </si>
+  <si>
+    <t>platysma_m_pin.jpg</t>
+  </si>
+  <si>
+    <t>lateral_pectoral_n_probe.jpg</t>
+  </si>
+  <si>
+    <t>medial_pectoral_n_pin_2.jpg</t>
+  </si>
+  <si>
+    <t>sternocleidomastoid_m_pin.jpg</t>
+  </si>
+  <si>
+    <t>serratus_anterior_pin-1.jpg</t>
+  </si>
+  <si>
+    <t>pectoralis_minor_m_pin.jpg</t>
+  </si>
+  <si>
+    <t>Sternohyoid</t>
+  </si>
+  <si>
+    <t>Omohyoid</t>
+  </si>
+  <si>
+    <t>sternohyoid_m_front.jpg</t>
+  </si>
+  <si>
+    <t>omohyoid_m.jpg</t>
+  </si>
+  <si>
+    <t>Mandible</t>
+  </si>
+  <si>
+    <t>Cephalic Vein</t>
+  </si>
+  <si>
+    <t>External Intercostals</t>
+  </si>
+  <si>
+    <t>mandible_coronoid_process.jpg</t>
+  </si>
+  <si>
+    <t>external_intercostal_m_pin.jpg</t>
+  </si>
+  <si>
+    <t>cephalic_v.jpg</t>
+  </si>
+  <si>
+    <t>Axillary Vein</t>
+  </si>
+  <si>
+    <t>Long head of biceps brachii</t>
+  </si>
+  <si>
+    <t>Short head of biceps brachii</t>
+  </si>
+  <si>
+    <t>Long thoracic nerve</t>
+  </si>
+  <si>
+    <t>Brachial Plexus</t>
+  </si>
+  <si>
+    <t>Middle Scalene</t>
+  </si>
+  <si>
+    <t>Basilic Vein</t>
+  </si>
+  <si>
+    <t>Musculocutaneous Nerve</t>
+  </si>
+  <si>
+    <t>Coracobachialis</t>
+  </si>
+  <si>
+    <t>Brachialis</t>
+  </si>
+  <si>
+    <t>Annular Ligament</t>
+  </si>
+  <si>
+    <t>Interosseous Membrane</t>
+  </si>
+  <si>
+    <t>interosseous_membrane.jpg</t>
+  </si>
+  <si>
+    <t>anular_ligament.jpg</t>
+  </si>
+  <si>
+    <t>brachialis_m.jpg</t>
+  </si>
+  <si>
+    <t>coracobrachialis_m.jpg</t>
+  </si>
+  <si>
+    <t>musculocutaneous_n.jpg</t>
+  </si>
+  <si>
+    <t>basilic_v.jpg</t>
+  </si>
+  <si>
+    <t>middle_scalene_m.jpg</t>
+  </si>
+  <si>
+    <t>brachial_plexus_interscalene_triangle_2.jpg</t>
+  </si>
+  <si>
+    <t>long_thoracic_n.jpg</t>
+  </si>
+  <si>
+    <t>biceps_brachii_short_head.jpg</t>
+  </si>
+  <si>
+    <t>biceps_brachii_long_head.jpg</t>
+  </si>
+  <si>
+    <t>axillary_v.jpg</t>
+  </si>
+  <si>
+    <t>Thoracolumbar Fascia</t>
+  </si>
+  <si>
+    <t>Teres Major</t>
+  </si>
+  <si>
+    <t>Teres Minor</t>
+  </si>
+  <si>
+    <t>Axillary Nerve</t>
+  </si>
+  <si>
+    <t>Lower Subscapular Nerve</t>
+  </si>
+  <si>
+    <t>Serratus Posterior Superior</t>
+  </si>
+  <si>
+    <t>Serratus Posterior Inferior</t>
+  </si>
+  <si>
+    <t>thoracolumbar_fascia.jpg</t>
+  </si>
+  <si>
+    <t>teres_major.jpg</t>
+  </si>
+  <si>
+    <t>teres_minor.jpg</t>
+  </si>
+  <si>
+    <t>axillary_n.jpg</t>
+  </si>
+  <si>
+    <t>lower_subscapular_n.jpg</t>
+  </si>
+  <si>
+    <t>serratus_posterior_superior_m_pin.jpg</t>
+  </si>
+  <si>
+    <t>serratus_posterior_inferior_m_pin.jpg</t>
+  </si>
+  <si>
+    <t>Rectus Sheath</t>
+  </si>
+  <si>
+    <t>Rectus Abdominis</t>
+  </si>
+  <si>
+    <t>Linea Alba</t>
+  </si>
+  <si>
+    <t>Inferior Epigastric Artery</t>
+  </si>
+  <si>
+    <t>Inguinal Ligament</t>
+  </si>
+  <si>
+    <t>Pyramidalis</t>
+  </si>
+  <si>
+    <t>rectus_sheath.jpg</t>
+  </si>
+  <si>
+    <t>rectus_abdominis_probe.jpg</t>
+  </si>
+  <si>
+    <t>linea_alba_probe.jpg</t>
+  </si>
+  <si>
+    <t>inferior_epigastric_a_probe.jpg</t>
+  </si>
+  <si>
+    <t>inguinal_ligament.jpg</t>
+  </si>
+  <si>
+    <t>pyramidalis_m_probe.jpg</t>
+  </si>
+  <si>
+    <t>Adductor Longus</t>
+  </si>
+  <si>
+    <t>Pectineus</t>
+  </si>
+  <si>
+    <t>Vastus Intermedius</t>
+  </si>
+  <si>
+    <t>Anterior cruciate ligament</t>
+  </si>
+  <si>
+    <t>Posterior Cruciate Ligament</t>
+  </si>
+  <si>
+    <t>Extensor Retinaculum</t>
+  </si>
+  <si>
+    <t>Extensor digitorum longus</t>
+  </si>
+  <si>
+    <t>Extensor Hallucis Longus</t>
+  </si>
+  <si>
+    <t>Tibialis Posterior</t>
+  </si>
+  <si>
+    <t>Flexor Digitorum Longus</t>
+  </si>
+  <si>
+    <t>Flexor Hallucis Longus</t>
+  </si>
+  <si>
+    <t>Posterior Tibial Artery</t>
+  </si>
+  <si>
+    <t>Posterior Tibial Vein</t>
+  </si>
+  <si>
+    <t>Tibial Nerve</t>
+  </si>
+  <si>
+    <t>adductor_longus_m.jpg</t>
+  </si>
+  <si>
+    <t>pectineus_m.jpg</t>
+  </si>
+  <si>
+    <t>vastus_intermedius.jpg</t>
+  </si>
+  <si>
+    <t>anterior_cruciate_ligament.jpg</t>
+  </si>
+  <si>
+    <t>posterior_cruciate_ligament.jpg</t>
+  </si>
+  <si>
+    <t>extensor_digitorum_longus.jpg</t>
+  </si>
+  <si>
+    <t>extensor_hallucis_longus_tendon.jpg</t>
+  </si>
+  <si>
+    <t>tibialis_posterior_m.jpg</t>
+  </si>
+  <si>
+    <t>flexor_digitorum_longus.jpg</t>
+  </si>
+  <si>
+    <t>flexor_hallucis_longus_m.jpg</t>
+  </si>
+  <si>
+    <t>posterior_tibial_a.jpg</t>
+  </si>
+  <si>
+    <t>posterior_tibial_v.jpg</t>
+  </si>
+  <si>
+    <t>tibial_n.jpg</t>
+  </si>
+  <si>
+    <t>extensor_retinaculum-1.jpg</t>
+  </si>
+  <si>
+    <t>Small Saphenous Vein</t>
+  </si>
+  <si>
+    <t>Inferior Gluteal Nerve</t>
+  </si>
+  <si>
+    <t>Inferior Gluteal Artery</t>
+  </si>
+  <si>
+    <t>Semimembranosus</t>
+  </si>
+  <si>
+    <t>Adductor Magnus</t>
+  </si>
+  <si>
+    <t>Lateral Sural Cutaneus Nerve</t>
+  </si>
+  <si>
+    <t>Medial Sural Cutaneus Nerve</t>
+  </si>
+  <si>
+    <t>Common Peroneal Nerve</t>
+  </si>
+  <si>
+    <t>inferior_gluteal_n.jpg</t>
+  </si>
+  <si>
+    <t>inferior_gluteal_a.jpg</t>
+  </si>
+  <si>
+    <t>semimembranosus_m.jpg</t>
+  </si>
+  <si>
+    <t>adductor_longus_m-1.jpg</t>
+  </si>
+  <si>
+    <t>adductor_magnus-1.jpg</t>
+  </si>
+  <si>
+    <t>medial_sural_cutaneous_n_close.jpg</t>
+  </si>
+  <si>
+    <t>lateral_sural_cutaneous_n_close.jpg</t>
+  </si>
+  <si>
+    <t>common_peroneal_n.jpg</t>
+  </si>
+  <si>
+    <t>adductor_magnus.jpg</t>
   </si>
 </sst>
 </file>
@@ -570,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7597E8A2-C4B3-5E48-B2B4-8DE306EF75DE}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -619,7 +1094,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -627,7 +1102,126 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3DE00E-9C6D-844A-BE89-0FF7811F98E9}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B9" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -637,10 +1231,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5202442-9435-564A-B3C5-F6C17B1E34F8}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -651,74 +1245,130 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -727,11 +1377,74 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D060F33B-86A8-8642-A85C-2415A9EA8ED0}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B58C15-DADF-CE42-96A0-7C52B2644DBD}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -742,130 +1455,637 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266E236F-C892-AC4E-B757-8FA180E19978}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DADE84-DB67-AF40-9FAD-4519ACD703CD}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11FDC69-099E-2D40-9FD7-374EEF4626AE}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE72C10-A3F1-4B4B-B994-D74DC72A510A}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2FFF74-6394-6147-83C1-438B1E1F5749}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>200</v>
+      </c>
+      <c r="B13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>201</v>
+      </c>
+      <c r="B14" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/Anatomy_Lab_Midterm.xlsx
+++ b/Anatomy_Lab_Midterm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlesdranoff/Desktop/Anatamy_Lab_Flashcards_V2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E421280-FABA-6646-A0B9-D85F3A183339}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FB31DC-FDE0-9245-B94B-4A95AD5F9702}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="18960" windowHeight="14920" firstSheet="3" activeTab="9" xr2:uid="{AA681CFE-1A32-6843-92F2-60816954C640}"/>
+    <workbookView xWindow="720" yWindow="460" windowWidth="28800" windowHeight="15700" activeTab="10" xr2:uid="{AA681CFE-1A32-6843-92F2-60816954C640}"/>
   </bookViews>
   <sheets>
     <sheet name="Pelvic" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,9 @@
     <sheet name="Proximal_Crural" sheetId="4" r:id="rId6"/>
     <sheet name="Distal_Crural" sheetId="5" r:id="rId7"/>
     <sheet name="Thoracic" sheetId="8" r:id="rId8"/>
-    <sheet name="Module 5" sheetId="11" r:id="rId9"/>
-    <sheet name="Module 6" sheetId="12" r:id="rId10"/>
+    <sheet name="Module_5" sheetId="11" r:id="rId9"/>
+    <sheet name="Module_6" sheetId="12" r:id="rId10"/>
+    <sheet name="All" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="234">
   <si>
     <t>gluteus_maximus_pin.jpg</t>
   </si>
@@ -694,6 +695,48 @@
   </si>
   <si>
     <t>adductor_magnus.jpg</t>
+  </si>
+  <si>
+    <t>Ulnar Nerve</t>
+  </si>
+  <si>
+    <t>ulnar_n.jpg</t>
+  </si>
+  <si>
+    <t>Axillary nerve</t>
+  </si>
+  <si>
+    <t>axillary_n_from_brachial_plexus.jpg</t>
+  </si>
+  <si>
+    <t>Flexor Carpi Ulnaris</t>
+  </si>
+  <si>
+    <t>flexor_carpi_ulnaris.jpg</t>
+  </si>
+  <si>
+    <t>Median Nerve</t>
+  </si>
+  <si>
+    <t>median_n.jpg</t>
+  </si>
+  <si>
+    <t>Brachial Artery</t>
+  </si>
+  <si>
+    <t>brachial_a.jpg</t>
+  </si>
+  <si>
+    <t>Lateral Head of Triceps Brachii</t>
+  </si>
+  <si>
+    <t>Long Head of Triceps Brachii</t>
+  </si>
+  <si>
+    <t>triceps_brachii_lateral_head.jpg</t>
+  </si>
+  <si>
+    <t>triceps_brachii_long_head.jpg</t>
   </si>
 </sst>
 </file>
@@ -1048,7 +1091,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1146,7 +1189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3DE00E-9C6D-844A-BE89-0FF7811F98E9}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -1229,12 +1272,787 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD2FD2F-4F16-AA4F-9687-B8A6FAF491AB}">
+  <dimension ref="A1:B95"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="G98" sqref="G98"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>159</v>
+      </c>
+      <c r="B23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>160</v>
+      </c>
+      <c r="B24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>162</v>
+      </c>
+      <c r="B26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>229</v>
+      </c>
+      <c r="B27" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>171</v>
+      </c>
+      <c r="B30" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>172</v>
+      </c>
+      <c r="B31" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>173</v>
+      </c>
+      <c r="B32" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>174</v>
+      </c>
+      <c r="B33" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>138</v>
+      </c>
+      <c r="B51" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>137</v>
+      </c>
+      <c r="B52" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>225</v>
+      </c>
+      <c r="B53" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>147</v>
+      </c>
+      <c r="B54" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>146</v>
+      </c>
+      <c r="B55" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>145</v>
+      </c>
+      <c r="B56" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>142</v>
+      </c>
+      <c r="B57" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>141</v>
+      </c>
+      <c r="B58" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>140</v>
+      </c>
+      <c r="B59" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>139</v>
+      </c>
+      <c r="B60" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>221</v>
+      </c>
+      <c r="B61" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>223</v>
+      </c>
+      <c r="B62" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>227</v>
+      </c>
+      <c r="B63" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>232</v>
+      </c>
+      <c r="B64" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>233</v>
+      </c>
+      <c r="B65" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>75</v>
+      </c>
+      <c r="B66" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>76</v>
+      </c>
+      <c r="B68" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>79</v>
+      </c>
+      <c r="B69" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>80</v>
+      </c>
+      <c r="B72" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>98</v>
+      </c>
+      <c r="B73" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>99</v>
+      </c>
+      <c r="B74" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>82</v>
+      </c>
+      <c r="B75" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>94</v>
+      </c>
+      <c r="B79" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>100</v>
+      </c>
+      <c r="B80" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>108</v>
+      </c>
+      <c r="B81" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>114</v>
+      </c>
+      <c r="B82" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>109</v>
+      </c>
+      <c r="B83" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>113</v>
+      </c>
+      <c r="B84" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>112</v>
+      </c>
+      <c r="B85" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>111</v>
+      </c>
+      <c r="B86" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>110</v>
+      </c>
+      <c r="B87" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>117</v>
+      </c>
+      <c r="B88" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>118</v>
+      </c>
+      <c r="B89" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>122</v>
+      </c>
+      <c r="B90" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>124</v>
+      </c>
+      <c r="B91" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>123</v>
+      </c>
+      <c r="B92" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>148</v>
+      </c>
+      <c r="B93" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>144</v>
+      </c>
+      <c r="B94" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>143</v>
+      </c>
+      <c r="B95" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5202442-9435-564A-B3C5-F6C17B1E34F8}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection sqref="A1:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1371,6 +2189,14 @@
         <v>155</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B17" t="s">
+        <v>228</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1381,7 +2207,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1441,10 +2267,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B58C15-DADF-CE42-96A0-7C52B2644DBD}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection sqref="A1:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1605,6 +2431,14 @@
         <v>136</v>
       </c>
     </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>225</v>
+      </c>
+      <c r="B20" t="s">
+        <v>224</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1612,10 +2446,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266E236F-C892-AC4E-B757-8FA180E19978}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1674,6 +2508,46 @@
       </c>
       <c r="B7" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B10" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>232</v>
+      </c>
+      <c r="B11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B12" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -1686,7 +2560,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection sqref="A1:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1773,7 +2647,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1836,7 +2710,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection sqref="A1:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
